--- a/trunk/IngDeSoftware/TpNro3/encabezadoexcelinfernalistico.xlsx
+++ b/trunk/IngDeSoftware/TpNro3/encabezadoexcelinfernalistico.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Reporte de Inspección" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Autor</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Fecha de Fin:</t>
+  </si>
+  <si>
+    <t>Clases Inspeccionadas</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Paquete</t>
+  </si>
+  <si>
+    <t>Gestión de Apiarios</t>
+  </si>
+  <si>
+    <t>iBee</t>
+  </si>
+  <si>
+    <t>Hora de Fin:</t>
+  </si>
+  <si>
+    <t>Hora de Inicio</t>
+  </si>
+  <si>
+    <t>Ultima Fecha Revision</t>
   </si>
 </sst>
 </file>
@@ -217,24 +244,30 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -244,25 +277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,6 +312,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -306,16 +338,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -330,9 +407,48 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -345,48 +461,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -399,14 +474,118 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -427,34 +606,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -471,52 +622,26 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -527,120 +652,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -648,175 +667,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,7 +905,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1113,13 +1189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="1" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -1132,341 +1208,314 @@
   <sheetData>
     <row r="1" spans="2:6" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="2:6" ht="12.75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="63">
         <v>40791</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0.40625</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="29">
+        <v>40791</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1">
+      <c r="B7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="29">
+        <v>40788</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="44" t="s">
+      <c r="F8" s="68"/>
+    </row>
+    <row r="9" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B9" s="44"/>
+      <c r="C9" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="48"/>
-    </row>
-    <row r="6" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44" t="s">
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B10" s="44"/>
+      <c r="C10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B7" s="42"/>
-      <c r="C7" s="44" t="s">
+      <c r="F10" s="59"/>
+    </row>
+    <row r="11" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="44" t="s">
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="44" t="s">
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B10" s="42"/>
-      <c r="C10" s="44" t="s">
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B11" s="42"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="2:6" ht="60" customHeight="1" thickBot="1">
-      <c r="B12" s="10" t="s">
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="2:6" ht="12.75" customHeight="1">
+      <c r="B15" s="44"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="66"/>
+    </row>
+    <row r="16" spans="2:6" ht="60" customHeight="1" thickBot="1">
+      <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C16" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="2:6" ht="12.75" thickBot="1">
-      <c r="B13" s="18" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="2:6" ht="12.75" thickBot="1">
+      <c r="B17" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="2" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+    </row>
+    <row r="18" spans="2:6" ht="12.75" thickBot="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="2:6" ht="12.75" thickBot="1">
+      <c r="B19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:6" ht="12.75" thickBot="1">
+      <c r="B20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="2:6" ht="12.75" thickBot="1">
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B22" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E22" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="2:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B15" s="49" t="s">
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="2:6" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" thickBot="1">
-      <c r="B17" s="13" t="s">
+      <c r="F23" s="56"/>
+    </row>
+    <row r="24" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+    </row>
+    <row r="25" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B25" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1">
-      <c r="B18" s="33" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="2:6" ht="24" customHeight="1">
+      <c r="B26" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="12" t="s">
+      <c r="C26" s="52"/>
+      <c r="D26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75">
-      <c r="B19" s="52" t="s">
+    <row r="27" spans="2:6" ht="12.75">
+      <c r="B27" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="1">
+      <c r="C27" s="47"/>
+      <c r="D27" s="1">
         <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B20" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="1">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B21" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B22" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B23" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B24" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B25" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="1">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A26" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="1">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B27" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="1">
-        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B28" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="55"/>
+      <c r="F27" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="32.25" customHeight="1">
+      <c r="B28" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="47"/>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B29" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="55"/>
+    <row r="29" spans="2:6" ht="32.25" customHeight="1">
+      <c r="B29" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="47"/>
       <c r="D29" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B30" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="55"/>
+    <row r="30" spans="2:6" ht="32.25" customHeight="1">
+      <c r="B30" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="47"/>
       <c r="D30" s="1">
         <v>3</v>
       </c>
@@ -1475,126 +1524,237 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B31" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="55"/>
+    <row r="31" spans="2:6" ht="32.25" customHeight="1">
+      <c r="B31" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="32.25" customHeight="1">
-      <c r="B32" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="35"/>
+    <row r="32" spans="2:6" ht="32.25" customHeight="1">
+      <c r="B32" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="47"/>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B33" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56">
+    <row r="33" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B33" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="1">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="57"/>
-    </row>
-    <row r="34" spans="2:6" ht="32.25" customHeight="1">
-      <c r="B34" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56">
-        <v>7</v>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="1">
+        <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="2:6" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B35" s="58" t="s">
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="1">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B36" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B37" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="1">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B38" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="1">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B40" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B41" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="15">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B42" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="15">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B43" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="4">
-        <f>SUM(D19:D34)</f>
+      <c r="C43" s="58"/>
+      <c r="D43" s="4">
+        <f>SUM(D27:D42)</f>
         <v>102</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1">
+      <c r="B44" s="11"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="51">
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C44:F44"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
